--- a/3) Sales Profit & Customer Metrics/Sales Profit & Customer Metrics - Dashboard.xlsx
+++ b/3) Sales Profit & Customer Metrics/Sales Profit & Customer Metrics - Dashboard.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCE\Sagar BCC\1) GIT HUB\1) Excel\1) Data Analysis &amp; Dashboard\3) Sales Profit &amp; Customer Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA6EF4D-9F3B-4DAD-96EA-1071659E1163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24E6691-655D-4689-9A05-98ABEFB131D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BCE64C4F-A7B2-411A-A9BF-D7BB2C6F11BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot" sheetId="2" r:id="rId2"/>
-    <sheet name="Daahboard" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.0" hidden="1">Pivot!$V$13:$V$17</definedName>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -281,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
-    <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0,\K"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0,\K"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -410,37 +410,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="333">
+  <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.0,\K"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.0,\K"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -452,10 +461,10 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="#,##0,\K"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -464,34 +473,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -500,940 +482,10 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="#,##0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="#,##0.0,\K"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -2053,6 +1105,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-9608-4AFE-8757-E72CB02DFC7F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3398,7 +2469,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -3478,7 +2549,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -8584,7 +7655,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8229600" y="5448300"/>
+              <a:off x="8229600" y="5257800"/>
               <a:ext cx="4572000" cy="1933574"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8999,6 +8070,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>9360</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="4800" b="1">
@@ -10291,8 +9363,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="60" name="Region">
@@ -10315,7 +9387,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10369,8 +9441,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="62" name="Customer Satisfaction">
@@ -10393,7 +9465,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10447,8 +9519,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="63" name="Month">
@@ -10471,7 +9543,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10525,8 +9597,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="64" name="Country">
@@ -10549,7 +9621,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11723,8 +10795,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDEC71DD-4A68-4E11-B777-F56EB43F74CB}" name="PivotTable13" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="V5:W10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0B0AE05-B964-4958-9D44-30F0D43BD205}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C5:C6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0">
@@ -11788,146 +10860,7 @@
       </items>
     </pivotField>
     <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Score" fld="13" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="317">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="318">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DE769-D131-41DE-9221-0FAECD35F458}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:A6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="14">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="29">
-        <item x="11"/>
-        <item x="14"/>
-        <item x="24"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="6"/>
-        <item x="27"/>
-        <item x="19"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -11961,10 +10894,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0" numFmtId="170"/>
+    <dataField name="Sum of Target Sales" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="327">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -11980,204 +10913,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58EE9BC-A0E0-4E6C-993D-D015B455392B}" name="PivotTable12" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="S5:T9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C0019B2-17F6-429C-BF10-C75367DA0D3E}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E5:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0">
-      <items count="13">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="29">
-        <item x="11"/>
-        <item x="14"/>
-        <item x="24"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="6"/>
-        <item x="27"/>
-        <item x="19"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0" numFmtId="188"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="316">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="5">
-    <chartFormat chart="3" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAFE5065-A5D5-4B99-8E54-ED5A7F5DCFE7}" name="PivotTable11" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="M5:N17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="11"/>
         <item x="1"/>
@@ -12237,9 +10978,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
     <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -12265,69 +11006,20 @@
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of No of Customers" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Sum of Profit" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="319">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -12340,8 +11032,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32327CAE-CB4C-4A04-BE73-74E8CEE4B96E}" name="PivotTable9" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32327CAE-CB4C-4A04-BE73-74E8CEE4B96E}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="P5:Q10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12460,7 +11152,7 @@
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="320">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12487,8 +11179,127 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27CDE9BB-9541-4189-B700-2DF465A6451D}" name="PivotTable8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{638DE769-D131-41DE-9221-0FAECD35F458}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:A6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="14">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="29">
+        <item x="11"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27CDE9BB-9541-4189-B700-2DF465A6451D}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="I5:K17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12637,7 +11448,7 @@
     <dataField name="Sum of Target Sales" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="321">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12685,8 +11496,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{782E8EA0-3BB5-4A81-BF65-0DAF4D871F4A}" name="PivotTable7" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{782E8EA0-3BB5-4A81-BF65-0DAF4D871F4A}" name="PivotTable7" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A8:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12801,7 +11612,7 @@
     <dataField name="Average of Customer Completion Rate" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="323">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12810,7 +11621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="322">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12826,8 +11637,339 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDEC71DD-4A68-4E11-B777-F56EB43F74CB}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="V5:W10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="11"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Score" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6629925-EA0C-4FA2-9124-4C26C1984EC7}" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C58EE9BC-A0E0-4E6C-993D-D015B455392B}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="S5:T9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="29">
+        <item x="11"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6629925-EA0C-4FA2-9124-4C26C1984EC7}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:G6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12929,126 +12071,7 @@
     <dataField name="Sum of No of Customers" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="324">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C0019B2-17F6-429C-BF10-C75367DA0D3E}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E5:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="14">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="29">
-        <item x="11"/>
-        <item x="14"/>
-        <item x="24"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="6"/>
-        <item x="27"/>
-        <item x="19"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Profit" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="325">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -13065,11 +12088,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0B0AE05-B964-4958-9D44-30F0D43BD205}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C5:C6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAFE5065-A5D5-4B99-8E54-ED5A7F5DCFE7}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="M5:N17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="11"/>
         <item x="1"/>
@@ -13130,8 +12153,8 @@
       </items>
     </pivotField>
     <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -13157,20 +12180,69 @@
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Target Sales" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of No of Customers" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="326">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13314,17 +12386,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B08721E6-8B6C-4C9F-8D9E-5AB7A2D7BA41}" name="Table1" displayName="Table1" ref="A1:N64" totalsRowShown="0">
   <autoFilter ref="A1:N64" xr:uid="{B08721E6-8B6C-4C9F-8D9E-5AB7A2D7BA41}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{3BBABF82-7B21-4AF4-92F8-3A6B2A5D8A60}" name="Date" dataDxfId="332"/>
-    <tableColumn id="13" xr3:uid="{957CFDEE-26E1-4188-8A6E-D59A9FA936E4}" name="Month" dataDxfId="329">
+    <tableColumn id="1" xr3:uid="{3BBABF82-7B21-4AF4-92F8-3A6B2A5D8A60}" name="Date" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{957CFDEE-26E1-4188-8A6E-D59A9FA936E4}" name="Month" dataDxfId="15">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[Date]],"mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{99C4A5CE-88DE-4490-8E1E-9BA1FA5F61BE}" name="Year" dataDxfId="328">
+    <tableColumn id="14" xr3:uid="{99C4A5CE-88DE-4490-8E1E-9BA1FA5F61BE}" name="Year" dataDxfId="14">
       <calculatedColumnFormula>YEAR(Table1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{0630FEC6-9FF2-49DD-997F-9F8E35C12683}" name="Region"/>
     <tableColumn id="3" xr3:uid="{2138A9C6-0126-49F4-B9F9-C1034C4B0ECC}" name="Sales"/>
-    <tableColumn id="4" xr3:uid="{9B992DF2-1C10-47F9-ADC9-C379DB5195E1}" name="Profit" dataDxfId="331"/>
-    <tableColumn id="5" xr3:uid="{43B2EDB9-92F2-4288-8C2C-49E9C7B73845}" name="Target Sales" dataDxfId="330"/>
+    <tableColumn id="4" xr3:uid="{9B992DF2-1C10-47F9-ADC9-C379DB5195E1}" name="Profit" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{43B2EDB9-92F2-4288-8C2C-49E9C7B73845}" name="Target Sales" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{30EC52A2-E2EA-4FFE-963B-07A1678699EA}" name="No of Customers"/>
     <tableColumn id="7" xr3:uid="{CC5D57F6-7E03-4D9A-8A51-80768979F4E9}" name="Sales Completion Rate"/>
     <tableColumn id="8" xr3:uid="{EC676D64-A5BC-40CC-BBCA-3ABDFB392FFF}" name="Profit Completion Rate"/>
@@ -13654,6 +12726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C900EBB-4236-4385-B112-7436EAEB5F65}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -16627,6 +15700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263A007A-B225-4DF1-902D-94810D50E4EA}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16661,34 +15735,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="V1" s="9" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="V1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="9"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -16703,27 +15777,27 @@
       <c r="G3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="M3" s="14" t="s">
+      <c r="K3" s="14"/>
+      <c r="M3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="P3" s="14" t="s">
+      <c r="N3" s="17"/>
+      <c r="P3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="S3" s="15" t="s">
+      <c r="Q3" s="17"/>
+      <c r="S3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="V3" s="15" t="s">
+      <c r="T3" s="14"/>
+      <c r="V3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="17"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -16788,10 +15862,10 @@
       <c r="I6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>12900</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>6000.0000000000009</v>
       </c>
       <c r="M6" s="5" t="s">
@@ -16803,13 +15877,13 @@
       <c r="P6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <v>30381</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="11">
         <v>50045</v>
       </c>
       <c r="V6" s="5" t="s">
@@ -16823,10 +15897,10 @@
       <c r="I7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>11256</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>24285.28571428571</v>
       </c>
       <c r="M7" s="5" t="s">
@@ -16838,13 +15912,13 @@
       <c r="P7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>63874</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="11">
         <v>22921</v>
       </c>
       <c r="V7" s="5" t="s">
@@ -16864,10 +15938,10 @@
       <c r="I8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>11700</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>9714.2857142857156</v>
       </c>
       <c r="M8" s="5" t="s">
@@ -16879,13 +15953,13 @@
       <c r="P8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>25744</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="11">
         <v>46112</v>
       </c>
       <c r="V8" s="5" t="s">
@@ -16899,23 +15973,23 @@
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>0.85555555555555574</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>A6/C6</f>
         <v>0.94228707956334989</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>10400</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>13571.428571428569</v>
       </c>
       <c r="M9" s="5" t="s">
@@ -16927,13 +16001,13 @@
       <c r="P9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <v>23719</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="11">
         <v>38283</v>
       </c>
       <c r="V9" s="5" t="s">
@@ -16947,23 +16021,23 @@
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>0.85492063492063519</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>100%-F9</f>
         <v>5.7712920436650106E-2</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>12995</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>12571.285714285716</v>
       </c>
       <c r="M10" s="5" t="s">
@@ -16975,7 +16049,7 @@
       <c r="P10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>13643</v>
       </c>
       <c r="V10" s="5" t="s">
@@ -16989,16 +16063,16 @@
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>0.8447619047619046</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>13450</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>12999.999999999998</v>
       </c>
       <c r="M11" s="5" t="s">
@@ -17009,14 +16083,14 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="I12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>11000</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>20142.85714285713</v>
       </c>
       <c r="M12" s="5" t="s">
@@ -17027,14 +16101,14 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="I13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>17050</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>3428.5714285714316</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -17047,14 +16121,14 @@
         <f t="array" ref="P13:Q17">P6:Q10</f>
         <v>Argentina</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="12">
         <v>30381</v>
       </c>
       <c r="S13" t="str" cm="1">
         <f t="array" ref="S13:T16">S6:T9</f>
         <v>East</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="12">
         <v>50045</v>
       </c>
       <c r="V13" t="str" cm="1">
@@ -17069,17 +16143,17 @@
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <f>B9</f>
         <v>0.85555555555555574</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>3600</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>9571.428571428567</v>
       </c>
       <c r="M14" s="5" t="s">
@@ -17091,13 +16165,13 @@
       <c r="P14" t="str">
         <v>Brazil</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="12">
         <v>63874</v>
       </c>
       <c r="S14" t="str">
         <v>North</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="12">
         <v>22921</v>
       </c>
       <c r="V14" t="str">
@@ -17111,17 +16185,17 @@
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <f>100%-B14</f>
         <v>0.14444444444444426</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>26729</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>30142.428571428576</v>
       </c>
       <c r="M15" s="5" t="s">
@@ -17133,13 +16207,13 @@
       <c r="P15" t="str">
         <v>Colombia</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="12">
         <v>25744</v>
       </c>
       <c r="S15" t="str">
         <v>South</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <v>46112</v>
       </c>
       <c r="V15" t="str">
@@ -17151,14 +16225,14 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="I16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>22481</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>20857.142857142862</v>
       </c>
       <c r="M16" s="5" t="s">
@@ -17170,13 +16244,13 @@
       <c r="P16" t="str">
         <v>Ecuador</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>23719</v>
       </c>
       <c r="S16" t="str">
         <v>West</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="12">
         <v>38283</v>
       </c>
       <c r="V16" t="str">
@@ -17190,17 +16264,17 @@
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f>B10</f>
         <v>0.85492063492063519</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>3800</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>3714.2857142857147</v>
       </c>
       <c r="M17" s="5" t="s">
@@ -17212,7 +16286,7 @@
       <c r="P17" t="str">
         <v>Peru</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <v>13643</v>
       </c>
       <c r="V17" t="str">
@@ -17226,20 +16300,20 @@
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <f>100%-B17</f>
         <v>0.14507936507936481</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f>B11</f>
         <v>0.8447619047619046</v>
       </c>
@@ -17248,13 +16322,13 @@
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <f>100%-B20</f>
         <v>0.1552380952380954</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17274,9 +16348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7209998F-5CF4-42DC-8059-7BA3272250A5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
